--- a/チーム5+5/第3反復/00_計画/5+5_反復計画書 .xlsx
+++ b/チーム5+5/第3反復/00_計画/5+5_反復計画書 .xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23007"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="73" documentId="11_C297DBBD8633BEE70F08A3E7A267324D82DE65A7" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C5069D6F-77C7-464D-A1A9-E1F85798C2DA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D1F1AE-28CC-40E5-BFDA-911FD89C7C0D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="11730" windowHeight="8670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5+5" sheetId="4" r:id="rId1"/>
     <sheet name="サンプル" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,12 +34,6 @@
   </si>
   <si>
     <t>結果と履歴を表示できる三目並べゲーム</t>
-  </si>
-  <si>
-    <t>対人とコンピュータを選択切り替えできる</t>
-  </si>
-  <si>
-    <t>コンピュータの強弱を設定できる</t>
   </si>
   <si>
     <t>計画</t>
@@ -451,6 +443,14 @@
     <t>コンピュータプレイヤーの強弱を設定できる
 対戦結果と履歴が評される</t>
   </si>
+  <si>
+    <t>コンソールから対人とコンピュータを選択切り替えできる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンソールからコンピュータの強弱を設定できる</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -459,7 +459,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -976,7 +976,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1299,10 +1299,10 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -1311,7 +1311,7 @@
     <col min="5" max="5" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -1322,188 +1322,188 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="13.5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="40"/>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="13.5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="40"/>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25" thickBot="1">
+    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="41"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="13.5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.5">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="19"/>
       <c r="B6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="E6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.5">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="19"/>
       <c r="B7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="E7" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.5">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="19"/>
       <c r="B8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="E8" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="110.25" customHeight="1">
+    </row>
+    <row r="9" spans="1:5" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
       <c r="B9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="E9" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="103.5" customHeight="1">
+    </row>
+    <row r="10" spans="1:5" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="E10" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.5">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="19"/>
       <c r="B11" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
       <c r="E11" s="21"/>
     </row>
-    <row r="12" spans="1:5" ht="13.5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>10</v>
-      </c>
       <c r="E12" s="13"/>
     </row>
-    <row r="13" spans="1:5" ht="13.5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:5" ht="13.5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:5" ht="93" customHeight="1">
+    <row r="15" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+    <row r="16" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -1529,7 +1529,7 @@
       <selection activeCell="C6" sqref="C6:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
@@ -1538,61 +1538,61 @@
     <col min="5" max="5" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" customHeight="1">
+    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="21" customHeight="1">
+    <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="40"/>
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="40"/>
       <c r="B3" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25" thickBot="1">
+    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="41"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="13.5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.5">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="19"/>
       <c r="B6" s="14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" s="31">
         <v>43984</v>
@@ -1604,10 +1604,10 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="19"/>
       <c r="B7" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="31">
         <v>43987</v>
@@ -1619,102 +1619,102 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="19"/>
       <c r="B8" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="76.5" customHeight="1">
+    </row>
+    <row r="9" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
       <c r="B9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>22</v>
-      </c>
       <c r="E9" s="26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="139.5" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="139.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="E10" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.5">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
       <c r="B11" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="1:5" ht="13.5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
       <c r="E12" s="36"/>
     </row>
-    <row r="13" spans="1:5" ht="13.5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:5" ht="13.5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:5" ht="42.75" customHeight="1">
+    <row r="15" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:5" ht="14.25" thickBot="1">
+    <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -1739,15 +1739,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -1931,14 +1922,53 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{352F1B1D-9EDA-4276-A29E-97D64D9CA13A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{352F1B1D-9EDA-4276-A29E-97D64D9CA13A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>